--- a/public/downloads/Template FIles/Banking Overview report result.xlsx
+++ b/public/downloads/Template FIles/Banking Overview report result.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="87">
   <si>
     <t>T.GlobalRef</t>
   </si>
@@ -250,12 +250,57 @@
   </si>
   <si>
     <t>Master Card</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Trans ID</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Amount (Inc)</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>30/11/2022</t>
+  </si>
+  <si>
+    <t>18/08/2022</t>
+  </si>
+  <si>
+    <t>23/07/2022</t>
+  </si>
+  <si>
+    <t>22/07/2022</t>
+  </si>
+  <si>
+    <t>30/06/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,10 +336,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,26 +660,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20" displayName="TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20" ref="A1:Q26" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20" displayName="TBankAccountReport_IgnoreDates_true_Search_Deleted_20__3D_20true_OrderBy_Date_20" ref="A1:Q26" tableType="queryTable" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:Q26"/>
   <tableColumns count="17">
-    <tableColumn id="18" uniqueName="18" name="T.GlobalRef" queryTableFieldId="1" dataDxfId="18"/>
-    <tableColumn id="2" uniqueName="2" name="T.Date" queryTableFieldId="2" dataDxfId="17"/>
-    <tableColumn id="3" uniqueName="3" name="T.Type" queryTableFieldId="3" dataDxfId="16"/>
-    <tableColumn id="4" uniqueName="4" name="T.AccountName" queryTableFieldId="4" dataDxfId="15"/>
-    <tableColumn id="5" uniqueName="5" name="T.Active" queryTableFieldId="5" dataDxfId="14"/>
-    <tableColumn id="6" uniqueName="6" name="T.Amountinc" queryTableFieldId="6" dataDxfId="13"/>
-    <tableColumn id="7" uniqueName="7" name="T.Amount" queryTableFieldId="7" dataDxfId="12"/>
-    <tableColumn id="8" uniqueName="8" name="T.ClassName" queryTableFieldId="8" dataDxfId="11"/>
-    <tableColumn id="9" uniqueName="9" name="T.SaleID" queryTableFieldId="9" dataDxfId="10"/>
-    <tableColumn id="10" uniqueName="10" name="T.PurchaseOrderID" queryTableFieldId="10" dataDxfId="9"/>
-    <tableColumn id="11" uniqueName="11" name="T.PaymentID" queryTableFieldId="11" dataDxfId="8"/>
-    <tableColumn id="12" uniqueName="12" name="T.PrepaymentID" queryTableFieldId="12" dataDxfId="7"/>
-    <tableColumn id="13" uniqueName="13" name="T.TransID" queryTableFieldId="13" dataDxfId="6"/>
-    <tableColumn id="14" uniqueName="14" name="T.Reconciled" queryTableFieldId="14" dataDxfId="5"/>
-    <tableColumn id="15" uniqueName="15" name="T.Notes" queryTableFieldId="15" dataDxfId="4"/>
-    <tableColumn id="16" uniqueName="16" name="T.ChqRefNo" queryTableFieldId="16" dataDxfId="3"/>
-    <tableColumn id="17" uniqueName="17" name="T.Payee" queryTableFieldId="17" dataDxfId="2"/>
+    <tableColumn id="18" uniqueName="18" name="T.GlobalRef" queryTableFieldId="1" dataDxfId="16"/>
+    <tableColumn id="2" uniqueName="2" name="T.Date" queryTableFieldId="2" dataDxfId="15"/>
+    <tableColumn id="3" uniqueName="3" name="T.Type" queryTableFieldId="3" dataDxfId="14"/>
+    <tableColumn id="4" uniqueName="4" name="T.AccountName" queryTableFieldId="4" dataDxfId="13"/>
+    <tableColumn id="5" uniqueName="5" name="T.Active" queryTableFieldId="5" dataDxfId="12"/>
+    <tableColumn id="6" uniqueName="6" name="T.Amountinc" queryTableFieldId="6" dataDxfId="11"/>
+    <tableColumn id="7" uniqueName="7" name="T.Amount" queryTableFieldId="7" dataDxfId="10"/>
+    <tableColumn id="8" uniqueName="8" name="T.ClassName" queryTableFieldId="8" dataDxfId="9"/>
+    <tableColumn id="9" uniqueName="9" name="T.SaleID" queryTableFieldId="9" dataDxfId="8"/>
+    <tableColumn id="10" uniqueName="10" name="T.PurchaseOrderID" queryTableFieldId="10" dataDxfId="7"/>
+    <tableColumn id="11" uniqueName="11" name="T.PaymentID" queryTableFieldId="11" dataDxfId="6"/>
+    <tableColumn id="12" uniqueName="12" name="T.PrepaymentID" queryTableFieldId="12" dataDxfId="5"/>
+    <tableColumn id="13" uniqueName="13" name="T.TransID" queryTableFieldId="13" dataDxfId="4"/>
+    <tableColumn id="14" uniqueName="14" name="T.Reconciled" queryTableFieldId="14" dataDxfId="3"/>
+    <tableColumn id="15" uniqueName="15" name="T.Notes" queryTableFieldId="15" dataDxfId="2"/>
+    <tableColumn id="16" uniqueName="16" name="T.ChqRefNo" queryTableFieldId="16" dataDxfId="1"/>
+    <tableColumn id="17" uniqueName="17" name="T.Payee" queryTableFieldId="17" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -894,12 +948,708 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>45078</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1500</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5">
+        <v>56000</v>
+      </c>
+      <c r="F2" s="5">
+        <v>56000</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="3">
+        <v>393</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="5">
+        <v>-100</v>
+      </c>
+      <c r="F3" s="5">
+        <v>-100</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>44905</v>
+      </c>
+      <c r="B4" s="3">
+        <v>61</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>44905</v>
+      </c>
+      <c r="B5" s="3">
+        <v>59</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>44905</v>
+      </c>
+      <c r="B6" s="3">
+        <v>58</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>44661</v>
+      </c>
+      <c r="B7" s="3">
+        <v>371</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-900</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-900</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>44721</v>
+      </c>
+      <c r="B8" s="3">
+        <v>236</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-87.34</v>
+      </c>
+      <c r="F8" s="5">
+        <v>-87.34</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="3">
+        <v>264</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5">
+        <v>550</v>
+      </c>
+      <c r="F9" s="5">
+        <v>550</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>44873</v>
+      </c>
+      <c r="B10" s="3">
+        <v>363</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5">
+        <v>-640</v>
+      </c>
+      <c r="F10" s="5">
+        <v>-640</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="3">
+        <v>365</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-150</v>
+      </c>
+      <c r="F11" s="5">
+        <v>-150</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="3">
+        <v>362</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="5">
+        <v>-75</v>
+      </c>
+      <c r="F12" s="5">
+        <v>-75</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="3">
+        <v>352</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="5">
+        <v>-150</v>
+      </c>
+      <c r="F13" s="5">
+        <v>-150</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="3">
+        <v>350</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="5">
+        <v>-150</v>
+      </c>
+      <c r="F14" s="5">
+        <v>-150</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="3">
+        <v>349</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="5">
+        <v>-75</v>
+      </c>
+      <c r="F15" s="5">
+        <v>-75</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="3">
+        <v>360</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="5">
+        <v>-120</v>
+      </c>
+      <c r="F16" s="5">
+        <v>-120</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="3">
+        <v>351</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="5">
+        <v>-120</v>
+      </c>
+      <c r="F17" s="5">
+        <v>-120</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>44688</v>
+      </c>
+      <c r="B18" s="3">
+        <v>335</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="5">
+        <v>110</v>
+      </c>
+      <c r="F18" s="5">
+        <v>110</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="3">
+        <v>786</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="5">
+        <v>80</v>
+      </c>
+      <c r="F19" s="5">
+        <v>80</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="3">
+        <v>785</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="5">
+        <v>55</v>
+      </c>
+      <c r="F20" s="5">
+        <v>55</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="3">
+        <v>662</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="5">
+        <v>22</v>
+      </c>
+      <c r="F21" s="5">
+        <v>22</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="3">
+        <v>69</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="5">
+        <v>50</v>
+      </c>
+      <c r="F22" s="5">
+        <v>50</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="3">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="5">
+        <v>-915</v>
+      </c>
+      <c r="F23" s="5">
+        <v>-915</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="3">
+        <v>37</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="5">
+        <v>2200</v>
+      </c>
+      <c r="F24" s="5">
+        <v>2200</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="3">
+        <v>21</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="5">
+        <v>15</v>
+      </c>
+      <c r="F25" s="5">
+        <v>15</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="3">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="5">
+        <v>-12739.95</v>
+      </c>
+      <c r="F26" s="5">
+        <v>-12739.95</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -909,7 +1659,7 @@
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
